--- a/Lenses/focuslens.xlsx
+++ b/Lenses/focuslens.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,26 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61,7 +73,7 @@
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
@@ -75,13 +87,13 @@
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="13.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="13.7109375" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
@@ -95,7 +107,7 @@
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="11.7109375" customWidth="true"/>
     <col min="41" max="41" width="2.140625" customWidth="true"/>
@@ -270,43 +282,43 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="P2">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="Q2">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="R2">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="S2">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="T2">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="U2">
-        <v>112.99917080586071</v>
+        <v>152.30677873631342</v>
       </c>
       <c r="V2">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="W2">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="X2">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="Y2">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="Z2">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="AA2">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -389,55 +401,55 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="N3">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="O3">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="P3">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="Q3">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="R3">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="S3">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="T3">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="U3">
-        <v>46.697230161399858</v>
+        <v>78.943000924648928</v>
       </c>
       <c r="V3">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="W3">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="X3">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="Y3">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="Z3">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="AA3">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="AB3">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="AC3">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -508,67 +520,67 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="L4">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="M4">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="N4">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="O4">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="P4">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="Q4">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="R4">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="S4">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="T4">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="U4">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="V4">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="W4">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="X4">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="Y4">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="Z4">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="AA4">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AB4">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AC4">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="AD4">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AE4">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -630,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="K5">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="L5">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="M5">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="N5">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="O5">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="P5">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="Q5">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="R5">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="S5">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="T5">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="U5">
-        <v>284.47851424703856</v>
+        <v>306.54600716297807</v>
       </c>
       <c r="V5">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="W5">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="X5">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="Y5">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="Z5">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="AA5">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="AB5">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AC5">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="AD5">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="AE5">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="AF5">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -749,85 +761,85 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="I6">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="J6">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="K6">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="L6">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="M6">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="N6">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="O6">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="P6">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="Q6">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="R6">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="S6">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="T6">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="U6">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="V6">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="W6">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="X6">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="Y6">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="Z6">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AA6">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="AB6">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="AC6">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="AD6">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="AE6">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AF6">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="AG6">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="AH6">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -871,91 +883,91 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>168.44219670302601</v>
+        <v>214.73853789378171</v>
       </c>
       <c r="H7">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="I7">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="J7">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="K7">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="L7">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="M7">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="N7">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="O7">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="P7">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="Q7">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="R7">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="S7">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="T7">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="U7">
-        <v>176.23995111841802</v>
+        <v>191.47378514169083</v>
       </c>
       <c r="V7">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="W7">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="X7">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="Y7">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="Z7">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AA7">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="AB7">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="AC7">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AD7">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="AE7">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="AF7">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="AG7">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AH7">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AI7">
-        <v>168.44219670302601</v>
+        <v>214.73853789378171</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -993,97 +1005,97 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="G8">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="H8">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="I8">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="J8">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="K8">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="L8">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="M8">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="N8">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="O8">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="P8">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="Q8">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="R8">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="S8">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="T8">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="U8">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="V8">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="W8">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="X8">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="Y8">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="Z8">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="AA8">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AB8">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="AC8">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="AD8">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AE8">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="AF8">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AG8">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="AH8">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AI8">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AJ8">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1118,97 +1130,97 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="G9">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="H9">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="I9">
-        <v>342.05262004715405</v>
+        <v>8.5219600273410379</v>
       </c>
       <c r="J9">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="K9">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="L9">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="M9">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="N9">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="O9">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="P9">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="Q9">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="R9">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="S9">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="T9">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="U9">
-        <v>82.12735881581682</v>
+        <v>92.52728785750692</v>
       </c>
       <c r="V9">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="W9">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="X9">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="Y9">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="Z9">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="AA9">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="AB9">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="AC9">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="AD9">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="AE9">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="AF9">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AG9">
-        <v>342.05262004715405</v>
+        <v>8.5219600273410379</v>
       </c>
       <c r="AH9">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="AI9">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AJ9">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1240,103 +1252,103 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="F10">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="G10">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="H10">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="I10">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="J10">
-        <v>259.25644815715771</v>
+        <v>279.58027978763675</v>
       </c>
       <c r="K10">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="L10">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="M10">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="N10">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="O10">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="P10">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="Q10">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="R10">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="S10">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="T10">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="U10">
-        <v>40.409229408933243</v>
+        <v>48.905078224696268</v>
       </c>
       <c r="V10">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="W10">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="X10">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="Y10">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="Z10">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="AA10">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="AB10">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AC10">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AD10">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="AE10">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AF10">
-        <v>259.25644815715771</v>
+        <v>279.58027978763675</v>
       </c>
       <c r="AG10">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AH10">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AI10">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="AJ10">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="AK10">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1362,109 +1374,109 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="E11">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="F11">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="G11">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="H11">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="I11">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="J11">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="K11">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="L11">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="M11">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="N11">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="O11">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="P11">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="Q11">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="R11">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="S11">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="T11">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="U11">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="V11">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="W11">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="X11">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="Y11">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="Z11">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AA11">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="AB11">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="AC11">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="AD11">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="AE11">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="AF11">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AG11">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="AH11">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="AI11">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="AJ11">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AK11">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="AL11">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -1487,109 +1499,109 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="E12">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="F12">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="G12">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="H12">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="I12">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="J12">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="K12">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="L12">
-        <v>114.7371346868988</v>
+        <v>126.71919064365892</v>
       </c>
       <c r="M12">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="N12">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="O12">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="P12">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="Q12">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="R12">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="S12">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="T12">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="U12">
-        <v>327.7213916308981</v>
+        <v>333.16578966620477</v>
       </c>
       <c r="V12">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="W12">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="X12">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="Y12">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="Z12">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="AA12">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="AB12">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AC12">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AD12">
-        <v>114.7371346868988</v>
+        <v>126.71919064365892</v>
       </c>
       <c r="AE12">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="AF12">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="AG12">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="AH12">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AI12">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="AJ12">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="AK12">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="AL12">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -1609,115 +1621,115 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="D13">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="E13">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="F13">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="G13">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="H13">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="I13">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="J13">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="K13">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="L13">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="M13">
-        <v>53.112013302358847</v>
+        <v>62.17450159408223</v>
       </c>
       <c r="N13">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="O13">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="P13">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="Q13">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="R13">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="S13">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="T13">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="U13">
-        <v>296.7770347232921</v>
+        <v>301.00746045882704</v>
       </c>
       <c r="V13">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="W13">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="X13">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="Y13">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="Z13">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="AA13">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="AB13">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="AC13">
-        <v>53.112013302358847</v>
+        <v>62.17450159408223</v>
       </c>
       <c r="AD13">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AE13">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="AF13">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AG13">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="AH13">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="AI13">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AJ13">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="AK13">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="AL13">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="AM13">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -1734,115 +1746,115 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="D14">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="E14">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="F14">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="G14">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="H14">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="I14">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="J14">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="K14">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="L14">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="M14">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="N14">
-        <v>358.63466722249188</v>
+        <v>5.3398150905611033</v>
       </c>
       <c r="O14">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="P14">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="Q14">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="R14">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="S14">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="T14">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="U14">
-        <v>269.44729281114985</v>
+        <v>272.64134235026836</v>
       </c>
       <c r="V14">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="W14">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="X14">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="Y14">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="Z14">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="AA14">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AB14">
-        <v>358.63466722249188</v>
+        <v>5.3398150905611033</v>
       </c>
       <c r="AC14">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="AD14">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AE14">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="AF14">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AG14">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="AH14">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="AI14">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="AJ14">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="AK14">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AL14">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AM14">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -1856,121 +1868,121 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="C15">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="D15">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="E15">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="F15">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="G15">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="H15">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="I15">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="J15">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="K15">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="L15">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="M15">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="N15">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="O15">
-        <v>311.3429635928905</v>
+        <v>316.13918301698715</v>
       </c>
       <c r="P15">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="Q15">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="R15">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="S15">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="T15">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="U15">
-        <v>245.74181717827216</v>
+        <v>248.06156198363021</v>
       </c>
       <c r="V15">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="W15">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="X15">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="Y15">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="Z15">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="AA15">
-        <v>311.3429635928905</v>
+        <v>316.13918301698715</v>
       </c>
       <c r="AB15">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AC15">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="AD15">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="AE15">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="AF15">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="AG15">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="AH15">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AI15">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="AJ15">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="AK15">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="AL15">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AM15">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="AN15">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -1981,121 +1993,121 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="C16">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="D16">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="E16">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="F16">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="G16">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="H16">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="I16">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="J16">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="K16">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="L16">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="M16">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="N16">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="O16">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="P16">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="Q16">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="R16">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="S16">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="T16">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="U16">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="V16">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="W16">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="X16">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="Y16">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="Z16">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="AA16">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="AB16">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="AC16">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="AD16">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="AE16">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AF16">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="AG16">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="AH16">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="AI16">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AJ16">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AK16">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="AL16">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="AM16">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="AN16">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -2106,121 +2118,121 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="C17">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="D17">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="E17">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="F17">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="G17">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="H17">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="I17">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="J17">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="K17">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="L17">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="M17">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="N17">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="O17">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="P17">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="Q17">
-        <v>238.44413653729845</v>
+        <v>240.49903085663021</v>
       </c>
       <c r="R17">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="S17">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="T17">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="U17">
-        <v>209.23601879881636</v>
+        <v>210.24982546742194</v>
       </c>
       <c r="V17">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="W17">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="X17">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="Y17">
-        <v>238.44413653729845</v>
+        <v>240.49903085663021</v>
       </c>
       <c r="Z17">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="AA17">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="AB17">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="AC17">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="AD17">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="AE17">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="AF17">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="AG17">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="AH17">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AI17">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="AJ17">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="AK17">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="AL17">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AM17">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AN17">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -2231,121 +2243,121 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="C18">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="D18">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="E18">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="F18">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="G18">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="H18">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="I18">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="J18">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="K18">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="L18">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="M18">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="N18">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="O18">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="P18">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="Q18">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="R18">
-        <v>212.88855747150791</v>
+        <v>214.03095510005394</v>
       </c>
       <c r="S18">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="T18">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="U18">
-        <v>196.44869913319479</v>
+        <v>197.01575808327885</v>
       </c>
       <c r="V18">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="W18">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="X18">
-        <v>212.88855747150791</v>
+        <v>214.03095510005394</v>
       </c>
       <c r="Y18">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="Z18">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="AA18">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="AB18">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="AC18">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="AD18">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="AE18">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="AF18">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AG18">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="AH18">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="AI18">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AJ18">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="AK18">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AL18">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="AM18">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="AN18">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -2356,121 +2368,121 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="C19">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="D19">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="E19">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="F19">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="G19">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="H19">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="I19">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="J19">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="K19">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="L19">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="M19">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="N19">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="O19">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="P19">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="Q19">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="R19">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="S19">
-        <v>194.62150277851455</v>
+        <v>195.12515415703376</v>
       </c>
       <c r="T19">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="U19">
-        <v>187.31162545420901</v>
+        <v>187.5626567120203</v>
       </c>
       <c r="V19">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="W19">
-        <v>194.62150277851455</v>
+        <v>195.12515415703376</v>
       </c>
       <c r="X19">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="Y19">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="Z19">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="AA19">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="AB19">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="AC19">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="AD19">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AE19">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="AF19">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AG19">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="AH19">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="AI19">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="AJ19">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="AK19">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AL19">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="AM19">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="AN19">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -2481,121 +2493,121 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="C20">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="D20">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="E20">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="F20">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="G20">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="H20">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="I20">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="J20">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="K20">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="L20">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="M20">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="N20">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="O20">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="P20">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="Q20">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="R20">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="S20">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="T20">
-        <v>183.65603133347912</v>
+        <v>183.78135060288659</v>
       </c>
       <c r="U20">
-        <v>181.82807032960596</v>
+        <v>181.89068115116211</v>
       </c>
       <c r="V20">
-        <v>183.65603133347912</v>
+        <v>183.78135060288659</v>
       </c>
       <c r="W20">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="X20">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="Y20">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="Z20">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="AA20">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="AB20">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="AC20">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="AD20">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="AE20">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="AF20">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="AG20">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AH20">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AI20">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="AJ20">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="AK20">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="AL20">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AM20">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AN20">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -2606,121 +2618,121 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>112.99917080586071</v>
+        <v>152.30677873631342</v>
       </c>
       <c r="C21">
-        <v>46.697230161399858</v>
+        <v>78.943000924648928</v>
       </c>
       <c r="D21">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="E21">
-        <v>284.47851424703856</v>
+        <v>306.54600716297807</v>
       </c>
       <c r="F21">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="G21">
-        <v>176.23995111841802</v>
+        <v>191.47378514169083</v>
       </c>
       <c r="H21">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="I21">
-        <v>82.12735881581682</v>
+        <v>92.52728785750692</v>
       </c>
       <c r="J21">
-        <v>40.409229408933243</v>
+        <v>48.905078224696268</v>
       </c>
       <c r="K21">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="L21">
-        <v>327.7213916308981</v>
+        <v>333.16578966620477</v>
       </c>
       <c r="M21">
-        <v>296.7770347232921</v>
+        <v>301.00746045882704</v>
       </c>
       <c r="N21">
-        <v>269.44729281114985</v>
+        <v>272.64134235026836</v>
       </c>
       <c r="O21">
-        <v>245.74181717827216</v>
+        <v>248.06156198363021</v>
       </c>
       <c r="P21">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="Q21">
-        <v>209.23601879881636</v>
+        <v>210.24982546742194</v>
       </c>
       <c r="R21">
-        <v>196.44869913319479</v>
+        <v>197.01575808327885</v>
       </c>
       <c r="S21">
-        <v>187.31162545420901</v>
+        <v>187.5626567120203</v>
       </c>
       <c r="T21">
-        <v>181.82807032960596</v>
+        <v>181.89068115116211</v>
       </c>
       <c r="U21">
-        <v>180.00000000000179</v>
+        <v>179.99999999999898</v>
       </c>
       <c r="V21">
-        <v>181.82807032960596</v>
+        <v>181.89068115116211</v>
       </c>
       <c r="W21">
-        <v>187.31162545420901</v>
+        <v>187.5626567120203</v>
       </c>
       <c r="X21">
-        <v>196.44869913319479</v>
+        <v>197.01575808327885</v>
       </c>
       <c r="Y21">
-        <v>209.23601879881636</v>
+        <v>210.24982546742194</v>
       </c>
       <c r="Z21">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="AA21">
-        <v>245.74181717827216</v>
+        <v>248.06156198363021</v>
       </c>
       <c r="AB21">
-        <v>269.44729281114985</v>
+        <v>272.64134235026836</v>
       </c>
       <c r="AC21">
-        <v>296.7770347232921</v>
+        <v>301.00746045882704</v>
       </c>
       <c r="AD21">
-        <v>327.7213916308981</v>
+        <v>333.16578966620477</v>
       </c>
       <c r="AE21">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="AF21">
-        <v>40.409229408933243</v>
+        <v>48.905078224696268</v>
       </c>
       <c r="AG21">
-        <v>82.12735881581682</v>
+        <v>92.52728785750692</v>
       </c>
       <c r="AH21">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="AI21">
-        <v>176.23995111841802</v>
+        <v>191.47378514169083</v>
       </c>
       <c r="AJ21">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="AK21">
-        <v>284.47851424703856</v>
+        <v>306.54600716297807</v>
       </c>
       <c r="AL21">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="AM21">
-        <v>46.697230161399858</v>
+        <v>78.943000924648928</v>
       </c>
       <c r="AN21">
-        <v>112.99917080586071</v>
+        <v>152.30677873631342</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -2731,121 +2743,121 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="C22">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="D22">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="E22">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="F22">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="G22">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="H22">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="I22">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="J22">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="K22">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="L22">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="M22">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="N22">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="O22">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="P22">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="Q22">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="R22">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="S22">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="T22">
-        <v>183.65603133347912</v>
+        <v>183.78135060288659</v>
       </c>
       <c r="U22">
-        <v>181.82807032960596</v>
+        <v>181.89068115116211</v>
       </c>
       <c r="V22">
-        <v>183.65603133347912</v>
+        <v>183.78135060288659</v>
       </c>
       <c r="W22">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="X22">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="Y22">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="Z22">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="AA22">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="AB22">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="AC22">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="AD22">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="AE22">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="AF22">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="AG22">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AH22">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AI22">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="AJ22">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="AK22">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="AL22">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AM22">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AN22">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -2856,121 +2868,121 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="C23">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="D23">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="E23">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="F23">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="G23">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="H23">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="I23">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="J23">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="K23">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="L23">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="M23">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="N23">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="O23">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="P23">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="Q23">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="R23">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="S23">
-        <v>194.62150277851455</v>
+        <v>195.12515415703376</v>
       </c>
       <c r="T23">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="U23">
-        <v>187.31162545420901</v>
+        <v>187.5626567120203</v>
       </c>
       <c r="V23">
-        <v>189.1392586161476</v>
+        <v>189.45329453367583</v>
       </c>
       <c r="W23">
-        <v>194.62150277851455</v>
+        <v>195.12515415703376</v>
       </c>
       <c r="X23">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="Y23">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="Z23">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="AA23">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="AB23">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="AC23">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="AD23">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AE23">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="AF23">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AG23">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="AH23">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="AI23">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="AJ23">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="AK23">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AL23">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="AM23">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="AN23">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -2981,121 +2993,121 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="C24">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="D24">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="E24">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="F24">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="G24">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="H24">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="I24">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="J24">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="K24">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="L24">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="M24">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="N24">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="O24">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="P24">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="Q24">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="R24">
-        <v>212.88855747150791</v>
+        <v>214.03095510005394</v>
       </c>
       <c r="S24">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="T24">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="U24">
-        <v>196.44869913319479</v>
+        <v>197.01575808327885</v>
       </c>
       <c r="V24">
-        <v>198.27578634230852</v>
+        <v>198.90635504780212</v>
       </c>
       <c r="W24">
-        <v>203.75639332110623</v>
+        <v>204.57811035017806</v>
       </c>
       <c r="X24">
-        <v>212.88855747150791</v>
+        <v>214.03095510005394</v>
       </c>
       <c r="Y24">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="Z24">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="AA24">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="AB24">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="AC24">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="AD24">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="AE24">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="AF24">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AG24">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="AH24">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="AI24">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AJ24">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="AK24">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AL24">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="AM24">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="AN24">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -3106,121 +3118,121 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="C25">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="D25">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="E25">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="F25">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="G25">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="H25">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="I25">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="J25">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="K25">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="L25">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="M25">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="N25">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="O25">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="P25">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="Q25">
-        <v>238.44413653729845</v>
+        <v>240.49903085663021</v>
       </c>
       <c r="R25">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="S25">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="T25">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="U25">
-        <v>209.23601879881636</v>
+        <v>210.24982546742194</v>
       </c>
       <c r="V25">
-        <v>211.06234261812367</v>
+        <v>212.14039122782509</v>
       </c>
       <c r="W25">
-        <v>216.54066037020831</v>
+        <v>217.81207982238664</v>
       </c>
       <c r="X25">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="Y25">
-        <v>238.44413653729845</v>
+        <v>240.49903085663021</v>
       </c>
       <c r="Z25">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="AA25">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="AB25">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="AC25">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="AD25">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="AE25">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="AF25">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="AG25">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="AH25">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AI25">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="AJ25">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="AK25">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="AL25">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AM25">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AN25">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -3231,121 +3243,121 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="C26">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="D26">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="E26">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="F26">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="G26">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="H26">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="I26">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="J26">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="K26">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="L26">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="M26">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="N26">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="O26">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="P26">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="Q26">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="R26">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="S26">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="T26">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="U26">
-        <v>225.66901228175439</v>
+        <v>227.26490543624126</v>
       </c>
       <c r="V26">
-        <v>227.49435621419855</v>
+        <v>229.1554784215619</v>
       </c>
       <c r="W26">
-        <v>232.9697355142402</v>
+        <v>234.8272257660056</v>
       </c>
       <c r="X26">
-        <v>242.09319402963013</v>
+        <v>244.28027614917141</v>
       </c>
       <c r="Y26">
-        <v>254.86147596530796</v>
+        <v>257.51499448567444</v>
       </c>
       <c r="Z26">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="AA26">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="AB26">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="AC26">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="AD26">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="AE26">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AF26">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="AG26">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="AH26">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="AI26">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AJ26">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AK26">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="AL26">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="AM26">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="AN26">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -3356,121 +3368,121 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="C27">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="D27">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="E27">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="F27">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="G27">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="H27">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="I27">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="J27">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="K27">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="L27">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="M27">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="N27">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="O27">
-        <v>311.3429635928905</v>
+        <v>316.13918301698715</v>
       </c>
       <c r="P27">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="Q27">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="R27">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="S27">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="T27">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="U27">
-        <v>245.74181717827216</v>
+        <v>248.06156198363021</v>
       </c>
       <c r="V27">
-        <v>247.56596592940235</v>
+        <v>249.95222201804353</v>
       </c>
       <c r="W27">
-        <v>253.03776115712691</v>
+        <v>255.62427993758715</v>
       </c>
       <c r="X27">
-        <v>262.15525111876894</v>
+        <v>265.07801705576617</v>
       </c>
       <c r="Y27">
-        <v>274.91518735047737</v>
+        <v>278.31406767491478</v>
       </c>
       <c r="Z27">
-        <v>291.31303130439989</v>
+        <v>295.33368871248285</v>
       </c>
       <c r="AA27">
-        <v>311.3429635928905</v>
+        <v>316.13918301698715</v>
       </c>
       <c r="AB27">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AC27">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="AD27">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="AE27">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="AF27">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="AG27">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="AH27">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AI27">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="AJ27">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="AK27">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="AL27">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AM27">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="AN27">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -3484,115 +3496,115 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="D28">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="E28">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="F28">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="G28">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="H28">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="I28">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="J28">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="K28">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="L28">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="M28">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="N28">
-        <v>358.63466722249188</v>
+        <v>5.3398150905611033</v>
       </c>
       <c r="O28">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="P28">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="Q28">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="R28">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="S28">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="T28">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="U28">
-        <v>269.44729281114985</v>
+        <v>272.64134235026836</v>
       </c>
       <c r="V28">
-        <v>271.27003254732074</v>
+        <v>274.53222731550841</v>
       </c>
       <c r="W28">
-        <v>276.73760246175686</v>
+        <v>280.20502482996312</v>
       </c>
       <c r="X28">
-        <v>285.84805600009526</v>
+        <v>289.66021625883144</v>
       </c>
       <c r="Y28">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="Z28">
-        <v>314.98336791989414</v>
+        <v>319.92253590090729</v>
       </c>
       <c r="AA28">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="AB28">
-        <v>358.63466722249188</v>
+        <v>5.3398150905611033</v>
       </c>
       <c r="AC28">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="AD28">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AE28">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="AF28">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AG28">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="AH28">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="AI28">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="AJ28">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="AK28">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AL28">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AM28">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -3609,115 +3621,115 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="D29">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="E29">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="F29">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="G29">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="H29">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="I29">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="J29">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="K29">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="L29">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="M29">
-        <v>53.112013302358847</v>
+        <v>62.17450159408223</v>
       </c>
       <c r="N29">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="O29">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="P29">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="Q29">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="R29">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="S29">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="T29">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="U29">
-        <v>296.7770347232921</v>
+        <v>301.00746045882704</v>
       </c>
       <c r="V29">
-        <v>298.59815332463916</v>
+        <v>302.89878872643948</v>
       </c>
       <c r="W29">
-        <v>304.06086182233503</v>
+        <v>308.57300039944369</v>
       </c>
       <c r="X29">
-        <v>313.1632196179396</v>
+        <v>318.03083678787362</v>
       </c>
       <c r="Y29">
-        <v>325.90199677607018</v>
+        <v>331.27374290294807</v>
       </c>
       <c r="Z29">
-        <v>342.27268059384409</v>
+        <v>348.304207581225</v>
       </c>
       <c r="AA29">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="AB29">
-        <v>25.885360995578338</v>
+        <v>33.746424553500589</v>
       </c>
       <c r="AC29">
-        <v>53.112013302358847</v>
+        <v>62.17450159408223</v>
       </c>
       <c r="AD29">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AE29">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="AF29">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AG29">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="AH29">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="AI29">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AJ29">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="AK29">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="AL29">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="AM29">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -3737,109 +3749,109 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="E30">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="F30">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="G30">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="H30">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="I30">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="J30">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="K30">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="L30">
-        <v>114.7371346868988</v>
+        <v>126.71919064365892</v>
       </c>
       <c r="M30">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="N30">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="O30">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="P30">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="Q30">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="R30">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="S30">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="T30">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="U30">
-        <v>327.7213916308981</v>
+        <v>333.16578966620477</v>
       </c>
       <c r="V30">
-        <v>329.54067893810588</v>
+        <v>335.05789052279499</v>
       </c>
       <c r="W30">
-        <v>334.99789579300898</v>
+        <v>340.73452904208654</v>
       </c>
       <c r="X30">
-        <v>344.09110830781583</v>
+        <v>350.19678279883556</v>
       </c>
       <c r="Y30">
-        <v>356.81709770436896</v>
+        <v>3.4466881019623372</v>
       </c>
       <c r="Z30">
-        <v>13.171366843052937</v>
+        <v>20.487629090770952</v>
       </c>
       <c r="AA30">
-        <v>33.1481493166051</v>
+        <v>41.324942535519625</v>
       </c>
       <c r="AB30">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="AC30">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="AD30">
-        <v>114.7371346868988</v>
+        <v>126.71919064365892</v>
       </c>
       <c r="AE30">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="AF30">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="AG30">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="AH30">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AI30">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="AJ30">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="AK30">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="AL30">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -3862,109 +3874,109 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="E31">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="F31">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="G31">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="H31">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="I31">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="J31">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="K31">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="L31">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="M31">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="N31">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="O31">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="P31">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="Q31">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="R31">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="S31">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="T31">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="U31">
-        <v>2.2694847511963872</v>
+        <v>9.1262943499385187</v>
       </c>
       <c r="V31">
-        <v>4.0867328053029723</v>
+        <v>11.019649226032129</v>
       </c>
       <c r="W31">
-        <v>9.537834387594927</v>
+        <v>16.700190684529929</v>
       </c>
       <c r="X31">
-        <v>18.62086306136942</v>
+        <v>26.16943013431171</v>
       </c>
       <c r="Y31">
-        <v>31.332612436837366</v>
+        <v>39.43016510541392</v>
       </c>
       <c r="Z31">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="AA31">
-        <v>67.623089419427828</v>
+        <v>77.346684225282232</v>
       </c>
       <c r="AB31">
-        <v>91.189075529118966</v>
+        <v>102.01984011136608</v>
       </c>
       <c r="AC31">
-        <v>118.35832485678577</v>
+        <v>130.52168493086606</v>
       </c>
       <c r="AD31">
-        <v>149.12137870092886</v>
+        <v>162.87438757532351</v>
       </c>
       <c r="AE31">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="AF31">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AG31">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="AH31">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="AI31">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="AJ31">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AK31">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="AL31">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -3990,103 +4002,103 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="F32">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="G32">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="H32">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="I32">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="J32">
-        <v>259.25644815715771</v>
+        <v>279.58027978763675</v>
       </c>
       <c r="K32">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="L32">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="M32">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="N32">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="O32">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="P32">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="Q32">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="R32">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="S32">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="T32">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="U32">
-        <v>40.409229408933243</v>
+        <v>48.905078224696268</v>
       </c>
       <c r="V32">
-        <v>42.22423268333776</v>
+        <v>50.800376214934829</v>
       </c>
       <c r="W32">
-        <v>47.66860265505963</v>
+        <v>56.486928595176607</v>
       </c>
       <c r="X32">
-        <v>56.740421063148915</v>
+        <v>65.966805237015407</v>
       </c>
       <c r="Y32">
-        <v>69.436495111115974</v>
+        <v>79.243781139665245</v>
       </c>
       <c r="Z32">
-        <v>85.752363901766913</v>
+        <v>96.323859142544251</v>
       </c>
       <c r="AA32">
-        <v>105.68230740036128</v>
+        <v>117.2160744344516</v>
       </c>
       <c r="AB32">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="AC32">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="AD32">
-        <v>187.08075602506131</v>
+        <v>202.929329276922</v>
       </c>
       <c r="AE32">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AF32">
-        <v>259.25644815715771</v>
+        <v>279.58027978763675</v>
       </c>
       <c r="AG32">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AH32">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AI32">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="AJ32">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="AK32">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -4118,97 +4130,97 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="G33">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="H33">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="I33">
-        <v>342.05262004715405</v>
+        <v>8.5219600273410379</v>
       </c>
       <c r="J33">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="K33">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="L33">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="M33">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="N33">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="O33">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="P33">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="Q33">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="R33">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="S33">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="T33">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="U33">
-        <v>82.12735881581682</v>
+        <v>92.52728785750692</v>
       </c>
       <c r="V33">
-        <v>83.939914439825969</v>
+        <v>94.425499788006505</v>
       </c>
       <c r="W33">
-        <v>89.376944425028682</v>
+        <v>100.12102745550366</v>
       </c>
       <c r="X33">
-        <v>98.436539393773856</v>
+        <v>109.61665779522842</v>
       </c>
       <c r="Y33">
-        <v>111.11552131941556</v>
+        <v>122.91741749905358</v>
       </c>
       <c r="Z33">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="AA33">
-        <v>147.31263148721879</v>
+        <v>160.96962239158233</v>
       </c>
       <c r="AB33">
-        <v>170.81813035935269</v>
+        <v>185.74952998156817</v>
       </c>
       <c r="AC33">
-        <v>197.91778255978119</v>
+        <v>214.39471837084352</v>
       </c>
       <c r="AD33">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="AE33">
-        <v>262.86084860008634</v>
+        <v>283.42761281686319</v>
       </c>
       <c r="AF33">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="AG33">
-        <v>342.05262004715405</v>
+        <v>8.5219600273410379</v>
       </c>
       <c r="AH33">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="AI33">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AJ33">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -4243,97 +4255,97 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="G34">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="H34">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="I34">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="J34">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="K34">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="L34">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="M34">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="N34">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="O34">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="P34">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="Q34">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="R34">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="S34">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="T34">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="U34">
-        <v>127.40944990794409</v>
+        <v>140.03118424343546</v>
       </c>
       <c r="V34">
-        <v>129.21935788116645</v>
+        <v>141.93366039990889</v>
       </c>
       <c r="W34">
-        <v>134.64844810866418</v>
+        <v>147.64227998548674</v>
       </c>
       <c r="X34">
-        <v>143.6948207852555</v>
+        <v>157.16074770479037</v>
       </c>
       <c r="Y34">
-        <v>156.35531380013288</v>
+        <v>170.49568782432542</v>
       </c>
       <c r="Z34">
-        <v>172.62550906141391</v>
+        <v>187.65736129084004</v>
       </c>
       <c r="AA34">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="AB34">
-        <v>215.97110935075563</v>
+        <v>233.52715601529255</v>
       </c>
       <c r="AC34">
-        <v>243.03148972988186</v>
+        <v>262.28628801623171</v>
       </c>
       <c r="AD34">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AE34">
-        <v>307.88078018762815</v>
+        <v>331.66257799637913</v>
       </c>
       <c r="AF34">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="AG34">
-        <v>26.958840914748293</v>
+        <v>57.335750245420471</v>
       </c>
       <c r="AH34">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AI34">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AJ34">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -4371,91 +4383,91 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>168.44219670302601</v>
+        <v>214.73853789378171</v>
       </c>
       <c r="H35">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="I35">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="J35">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="K35">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="L35">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="M35">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="N35">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="O35">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="P35">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="Q35">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="R35">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="S35">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="T35">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="U35">
-        <v>176.23995111841802</v>
+        <v>191.47378514169083</v>
       </c>
       <c r="V35">
-        <v>178.04701451539435</v>
+        <v>193.38238272063978</v>
       </c>
       <c r="W35">
-        <v>183.46757443228401</v>
+        <v>199.10974861706046</v>
       </c>
       <c r="X35">
-        <v>192.49974130595811</v>
+        <v>208.66075758347714</v>
       </c>
       <c r="Y35">
-        <v>205.14037005500364</v>
+        <v>222.04406491070202</v>
       </c>
       <c r="Z35">
-        <v>221.38506634329875</v>
+        <v>239.27294923085643</v>
       </c>
       <c r="AA35">
-        <v>241.22819530537851</v>
+        <v>260.36658886392252</v>
       </c>
       <c r="AB35">
-        <v>264.66289269002061</v>
+        <v>285.35187495938288</v>
       </c>
       <c r="AC35">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="AD35">
-        <v>322.27347213257764</v>
+        <v>347.15933832275124</v>
       </c>
       <c r="AE35">
-        <v>356.42961173135978</v>
+        <v>24.100880522637738</v>
       </c>
       <c r="AF35">
-        <v>34.137873017235933</v>
+        <v>65.183170294011248</v>
       </c>
       <c r="AG35">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="AH35">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="AI35">
-        <v>168.44219670302601</v>
+        <v>214.73853789378171</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -4499,85 +4511,85 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="I36">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="J36">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="K36">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="L36">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="M36">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="N36">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="O36">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="P36">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="Q36">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="R36">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="S36">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="T36">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="U36">
-        <v>228.6022119549844</v>
+        <v>246.93858778257078</v>
       </c>
       <c r="V36">
-        <v>230.40623711955871</v>
+        <v>248.85583516635819</v>
       </c>
       <c r="W36">
-        <v>235.81768597390328</v>
+        <v>254.60963598068216</v>
       </c>
       <c r="X36">
-        <v>244.8346798459487</v>
+        <v>264.20634979691181</v>
       </c>
       <c r="Y36">
-        <v>257.4540917628463</v>
+        <v>277.65720227589225</v>
       </c>
       <c r="Z36">
-        <v>273.67155265018073</v>
+        <v>294.97927606293217</v>
       </c>
       <c r="AA36">
-        <v>293.48145996775821</v>
+        <v>316.19700363145887</v>
       </c>
       <c r="AB36">
-        <v>316.87698873918839</v>
+        <v>341.34427449457797</v>
       </c>
       <c r="AC36">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="AD36">
-        <v>14.391581047597612</v>
+        <v>43.628516748237445</v>
       </c>
       <c r="AE36">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AF36">
-        <v>86.136845321596311</v>
+        <v>122.42800830622147</v>
       </c>
       <c r="AG36">
-        <v>127.31638247719755</v>
+        <v>168.3259733835138</v>
       </c>
       <c r="AH36">
-        <v>172.01582345936973</v>
+        <v>218.80118953817845</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -4630,73 +4642,73 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="K37">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="L37">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="M37">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="N37">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="O37">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="P37">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="Q37">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="R37">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="S37">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="T37">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="U37">
-        <v>284.47851424703856</v>
+        <v>306.54600716297807</v>
       </c>
       <c r="V37">
-        <v>286.27931097594239</v>
+        <v>308.47531324895647</v>
       </c>
       <c r="W37">
-        <v>291.68107836726966</v>
+        <v>314.26590393938466</v>
       </c>
       <c r="X37">
-        <v>300.68194926734577</v>
+        <v>323.92601337533824</v>
       </c>
       <c r="Y37">
-        <v>313.27881585515217</v>
+        <v>337.47010377096967</v>
       </c>
       <c r="Z37">
-        <v>329.46733577380894</v>
+        <v>354.92002961448281</v>
       </c>
       <c r="AA37">
-        <v>349.24194067205667</v>
+        <v>16.306782940376422</v>
       </c>
       <c r="AB37">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="AC37">
-        <v>39.52106980287374</v>
+        <v>71.075989476497298</v>
       </c>
       <c r="AD37">
-        <v>70.008437057176408</v>
+        <v>104.592721376809</v>
       </c>
       <c r="AE37">
-        <v>104.04760846050721</v>
+        <v>142.32502267765665</v>
       </c>
       <c r="AF37">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4758,67 +4770,67 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="L38">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="M38">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="N38">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="O38">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="P38">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="Q38">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="R38">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="S38">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="T38">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="U38">
-        <v>343.85010492123314</v>
+        <v>10.467311079141012</v>
       </c>
       <c r="V38">
-        <v>345.64748663653779</v>
+        <v>12.413229112078142</v>
       </c>
       <c r="W38">
-        <v>351.03901303289734</v>
+        <v>18.254427196168507</v>
       </c>
       <c r="X38">
-        <v>0.022829079784088435</v>
+        <v>28.001492944358233</v>
       </c>
       <c r="Y38">
-        <v>12.595847113880012</v>
+        <v>41.672941893044253</v>
       </c>
       <c r="Z38">
-        <v>28.753752899520208</v>
+        <v>59.296583222850117</v>
       </c>
       <c r="AA38">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="AB38">
-        <v>71.800890918905864</v>
+        <v>106.5711797320202</v>
       </c>
       <c r="AC38">
-        <v>98.675449457870414</v>
+        <v>136.34676612173931</v>
       </c>
       <c r="AD38">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="AE38">
-        <v>163.0809982501346</v>
+        <v>208.65291398049709</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4889,55 +4901,55 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="N39">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="O39">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="P39">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="Q39">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="R39">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="S39">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="T39">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="U39">
-        <v>46.697230161399858</v>
+        <v>78.943000924648928</v>
       </c>
       <c r="V39">
-        <v>48.491014071478133</v>
+        <v>80.911557591659005</v>
       </c>
       <c r="W39">
-        <v>53.871751292040699</v>
+        <v>86.821635741950473</v>
       </c>
       <c r="X39">
-        <v>62.837599497158664</v>
+        <v>96.686760485319397</v>
       </c>
       <c r="Y39">
-        <v>75.385492148308373</v>
+        <v>110.53049478298054</v>
       </c>
       <c r="Z39">
-        <v>91.511144480746523</v>
+        <v>128.38803809593114</v>
       </c>
       <c r="AA39">
-        <v>111.20906184342327</v>
+        <v>150.30860138165281</v>
       </c>
       <c r="AB39">
-        <v>134.47255035186544</v>
+        <v>176.35870215607659</v>
       </c>
       <c r="AC39">
-        <v>161.29372980249312</v>
+        <v>206.62657415605301</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -5020,43 +5032,43 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="P40">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="Q40">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="R40">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="S40">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="T40">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="U40">
-        <v>112.99917080586071</v>
+        <v>152.30677873631342</v>
       </c>
       <c r="V40">
-        <v>114.78917805463738</v>
+        <v>154.30588068333083</v>
       </c>
       <c r="W40">
-        <v>120.15858971712581</v>
+        <v>160.30879222656546</v>
       </c>
       <c r="X40">
-        <v>129.10557672946456</v>
+        <v>170.33268300796999</v>
       </c>
       <c r="Y40">
-        <v>141.62709460512775</v>
+        <v>184.40736479157647</v>
       </c>
       <c r="Z40">
-        <v>157.71888934438553</v>
+        <v>202.57715783446918</v>
       </c>
       <c r="AA40">
-        <v>177.37550566750846</v>
+        <v>224.90365239199866</v>
       </c>
       <c r="AB40">
         <v>0</v>
